--- a/Componentes.xlsx
+++ b/Componentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruxx\Desktop\Projeto ECU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{42529D3F-F932-4797-931F-C793105C5A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3896E675-5D3C-4C19-8B2E-2C4C6FF663DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{92B59EA9-742D-46DE-8981-2FD1BF836246}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{92B59EA9-742D-46DE-8981-2FD1BF836246}"/>
   </bookViews>
   <sheets>
     <sheet name="Resistores" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Transistores" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>2k4</t>
   </si>
@@ -167,6 +166,9 @@
   </si>
   <si>
     <t>Zener, pesquisar tensão!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRFZ44N </t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1148,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7251DE14-7345-46C0-98E9-CB29BC6C1431}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,580 +1876,49 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A3A7DF-2F9E-40FC-9DC6-D9D576FCD060}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8.26953125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>3</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="4">
-        <f>SUM(B2:B18)</f>
-        <v>2</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" ref="C19:I19" si="0">SUM(C2:C18)</f>
-        <v>2</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="0"/>
+      <c r="B4" s="4">
+        <f>SUM(B2:B3)</f>
         <v>6</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
